--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H2">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I2">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J2">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N2">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O2">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P2">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q2">
-        <v>13.52530614040196</v>
+        <v>23.66878387144478</v>
       </c>
       <c r="R2">
-        <v>13.52530614040196</v>
+        <v>213.019054843003</v>
       </c>
       <c r="S2">
-        <v>3.432396634295648E-05</v>
+        <v>5.513669376609408E-05</v>
       </c>
       <c r="T2">
-        <v>3.432396634295648E-05</v>
+        <v>5.513669376609409E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H3">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I3">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J3">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N3">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O3">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P3">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q3">
-        <v>22.15760466098278</v>
+        <v>26.00531456688356</v>
       </c>
       <c r="R3">
-        <v>22.15760466098278</v>
+        <v>234.0478311019521</v>
       </c>
       <c r="S3">
-        <v>5.623065893882283E-05</v>
+        <v>6.057966785927984E-05</v>
       </c>
       <c r="T3">
-        <v>5.623065893882283E-05</v>
+        <v>6.057966785927985E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H4">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I4">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J4">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N4">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O4">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P4">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q4">
-        <v>194.1894096537177</v>
+        <v>253.0558032072206</v>
       </c>
       <c r="R4">
-        <v>194.1894096537177</v>
+        <v>2277.502228864986</v>
       </c>
       <c r="S4">
-        <v>0.0004928059070842376</v>
+        <v>0.0005894962919494434</v>
       </c>
       <c r="T4">
-        <v>0.0004928059070842376</v>
+        <v>0.0005894962919494435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H5">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I5">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J5">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N5">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O5">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P5">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q5">
-        <v>225.4256895384296</v>
+        <v>265.2592379609305</v>
       </c>
       <c r="R5">
-        <v>225.4256895384296</v>
+        <v>2387.333141648375</v>
       </c>
       <c r="S5">
-        <v>0.0005720760550803224</v>
+        <v>0.0006179243281579949</v>
       </c>
       <c r="T5">
-        <v>0.0005720760550803224</v>
+        <v>0.000617924328157995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H6">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I6">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J6">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N6">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O6">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P6">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q6">
-        <v>444.3619471412926</v>
+        <v>528.522969360142</v>
       </c>
       <c r="R6">
-        <v>444.3619471412926</v>
+        <v>4756.706724241279</v>
       </c>
       <c r="S6">
-        <v>0.001127683496361514</v>
+        <v>0.001231200101713467</v>
       </c>
       <c r="T6">
-        <v>0.001127683496361514</v>
+        <v>0.001231200101713467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H7">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I7">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J7">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N7">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O7">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P7">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q7">
-        <v>2.935423728183914</v>
+        <v>3.919247509478334</v>
       </c>
       <c r="R7">
-        <v>2.935423728183914</v>
+        <v>35.273227585305</v>
       </c>
       <c r="S7">
-        <v>7.449397758733921E-06</v>
+        <v>9.129930413718507E-06</v>
       </c>
       <c r="T7">
-        <v>7.449397758733921E-06</v>
+        <v>9.129930413718507E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H8">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I8">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J8">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N8">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O8">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P8">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q8">
-        <v>333.6113934715212</v>
+        <v>1.309399970131111</v>
       </c>
       <c r="R8">
-        <v>333.6113934715212</v>
+        <v>11.78459973118</v>
       </c>
       <c r="S8">
-        <v>0.0008466252905683212</v>
+        <v>3.050261710216244E-06</v>
       </c>
       <c r="T8">
-        <v>0.0008466252905683212</v>
+        <v>3.050261710216245E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H9">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I9">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J9">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N9">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O9">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P9">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q9">
-        <v>546.5332385239348</v>
+        <v>1.438661077902222</v>
       </c>
       <c r="R9">
-        <v>546.5332385239348</v>
+        <v>12.94794970112</v>
       </c>
       <c r="S9">
-        <v>0.00138696960273352</v>
+        <v>3.351376890182894E-06</v>
       </c>
       <c r="T9">
-        <v>0.00138696960273352</v>
+        <v>3.351376890182895E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H10">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I10">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J10">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N10">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O10">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P10">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q10">
-        <v>4789.821308256433</v>
+        <v>13.99950512712222</v>
       </c>
       <c r="R10">
-        <v>4789.821308256433</v>
+        <v>125.9955461441</v>
       </c>
       <c r="S10">
-        <v>0.01215541176419417</v>
+        <v>3.261200200498027E-05</v>
       </c>
       <c r="T10">
-        <v>0.01215541176419417</v>
+        <v>3.261200200498027E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H11">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I11">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J11">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N11">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O11">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P11">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q11">
-        <v>5560.286593923931</v>
+        <v>14.67462122893778</v>
       </c>
       <c r="R11">
-        <v>5560.286593923931</v>
+        <v>132.07159106044</v>
       </c>
       <c r="S11">
-        <v>0.01411066691769279</v>
+        <v>3.418469242982597E-05</v>
       </c>
       <c r="T11">
-        <v>0.01411066691769279</v>
+        <v>3.418469242982598E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H12">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I12">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J12">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N12">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O12">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P12">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q12">
-        <v>10960.50668669888</v>
+        <v>29.23884742252</v>
       </c>
       <c r="R12">
-        <v>10960.50668669888</v>
+        <v>263.14962680268</v>
       </c>
       <c r="S12">
-        <v>0.02781512364383505</v>
+        <v>6.811221840400484E-05</v>
       </c>
       <c r="T12">
-        <v>0.02781512364383505</v>
+        <v>6.811221840400486E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H13">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I13">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J13">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N13">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O13">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P13">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q13">
-        <v>72.40433526776349</v>
+        <v>0.2168198670333333</v>
       </c>
       <c r="R13">
-        <v>72.40433526776349</v>
+        <v>1.9513788033</v>
       </c>
       <c r="S13">
-        <v>0.0001837447478834659</v>
+        <v>5.050842779229113E-07</v>
       </c>
       <c r="T13">
-        <v>0.0001837447478834659</v>
+        <v>5.050842779229113E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H14">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I14">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J14">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N14">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O14">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P14">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q14">
-        <v>371.7135576531873</v>
+        <v>606.331101398406</v>
       </c>
       <c r="R14">
-        <v>371.7135576531873</v>
+        <v>5456.979912585653</v>
       </c>
       <c r="S14">
-        <v>0.0009433193977027007</v>
+        <v>0.001412455005725723</v>
       </c>
       <c r="T14">
-        <v>0.0009433193977027007</v>
+        <v>0.001412455005725724</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H15">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I15">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J15">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N15">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O15">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P15">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q15">
-        <v>608.9534663473416</v>
+        <v>666.1867846355059</v>
       </c>
       <c r="R15">
-        <v>608.9534663473416</v>
+        <v>5995.681061719553</v>
       </c>
       <c r="S15">
-        <v>0.001545377092862732</v>
+        <v>0.001551889481731307</v>
       </c>
       <c r="T15">
-        <v>0.001545377092862732</v>
+        <v>0.001551889481731307</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H16">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I16">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J16">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N16">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O16">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P16">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q16">
-        <v>5336.872642411806</v>
+        <v>6482.614599350193</v>
       </c>
       <c r="R16">
-        <v>5336.872642411806</v>
+        <v>58343.53139415174</v>
       </c>
       <c r="S16">
-        <v>0.01354369616873929</v>
+        <v>0.01510132239617109</v>
       </c>
       <c r="T16">
-        <v>0.01354369616873929</v>
+        <v>0.0151013223961711</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H17">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I17">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J17">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N17">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O17">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P17">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q17">
-        <v>6195.333708155334</v>
+        <v>6795.234042548009</v>
       </c>
       <c r="R17">
-        <v>6195.333708155334</v>
+        <v>61157.10638293208</v>
       </c>
       <c r="S17">
-        <v>0.01572226339830469</v>
+        <v>0.01582957284615387</v>
       </c>
       <c r="T17">
-        <v>0.01572226339830469</v>
+        <v>0.01582957284615388</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H18">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I18">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J18">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N18">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O18">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P18">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q18">
-        <v>12212.31952481917</v>
+        <v>13539.34853041224</v>
       </c>
       <c r="R18">
-        <v>12212.31952481917</v>
+        <v>121854.1367737102</v>
       </c>
       <c r="S18">
-        <v>0.03099192284359384</v>
+        <v>0.03154006212437425</v>
       </c>
       <c r="T18">
-        <v>0.03099192284359384</v>
+        <v>0.03154006212437425</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H19">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I19">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J19">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N19">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O19">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P19">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q19">
-        <v>80.67372271622371</v>
+        <v>100.4006657875617</v>
       </c>
       <c r="R19">
-        <v>80.67372271622371</v>
+        <v>903.605992088055</v>
       </c>
       <c r="S19">
-        <v>0.0002047304596678337</v>
+        <v>0.0002338844612172646</v>
       </c>
       <c r="T19">
-        <v>0.0002047304596678337</v>
+        <v>0.0002338844612172647</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>881.6598427613239</v>
+        <v>63.66430533333334</v>
       </c>
       <c r="H20">
-        <v>881.6598427613239</v>
+        <v>190.992916</v>
       </c>
       <c r="I20">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="J20">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N20">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O20">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P20">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q20">
-        <v>5185.928553963792</v>
+        <v>559.9527976930138</v>
       </c>
       <c r="R20">
-        <v>5185.928553963792</v>
+        <v>5039.575179237125</v>
       </c>
       <c r="S20">
-        <v>0.01316063646141914</v>
+        <v>0.001304416234376758</v>
       </c>
       <c r="T20">
-        <v>0.01316063646141914</v>
+        <v>0.001304416234376758</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>881.6598427613239</v>
+        <v>63.66430533333334</v>
       </c>
       <c r="H21">
-        <v>881.6598427613239</v>
+        <v>190.992916</v>
       </c>
       <c r="I21">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="J21">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N21">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O21">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P21">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q21">
-        <v>8495.759985468019</v>
+        <v>615.2301159917797</v>
       </c>
       <c r="R21">
-        <v>8495.759985468019</v>
+        <v>5537.071043926017</v>
       </c>
       <c r="S21">
-        <v>0.02156019071006214</v>
+        <v>0.001433185358629356</v>
       </c>
       <c r="T21">
-        <v>0.02156019071006214</v>
+        <v>0.001433185358629356</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>881.6598427613239</v>
+        <v>63.66430533333334</v>
       </c>
       <c r="H22">
-        <v>881.6598427613239</v>
+        <v>190.992916</v>
       </c>
       <c r="I22">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="J22">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N22">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O22">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P22">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q22">
-        <v>74456.90278258341</v>
+        <v>5986.759004939377</v>
       </c>
       <c r="R22">
-        <v>74456.90278258341</v>
+        <v>53880.83104445438</v>
       </c>
       <c r="S22">
-        <v>0.1889536694090847</v>
+        <v>0.01394622130564916</v>
       </c>
       <c r="T22">
-        <v>0.1889536694090847</v>
+        <v>0.01394622130564916</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>881.6598427613239</v>
+        <v>63.66430533333334</v>
       </c>
       <c r="H23">
-        <v>881.6598427613239</v>
+        <v>190.992916</v>
       </c>
       <c r="I23">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="J23">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N23">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O23">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P23">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q23">
-        <v>86433.64579247715</v>
+        <v>6275.466167458533</v>
       </c>
       <c r="R23">
-        <v>86433.64579247715</v>
+        <v>56479.1955071268</v>
       </c>
       <c r="S23">
-        <v>0.2193477558498974</v>
+        <v>0.01461876783336077</v>
       </c>
       <c r="T23">
-        <v>0.2193477558498974</v>
+        <v>0.01461876783336077</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>881.6598427613239</v>
+        <v>63.66430533333334</v>
       </c>
       <c r="H24">
-        <v>881.6598427613239</v>
+        <v>190.992916</v>
       </c>
       <c r="I24">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="J24">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N24">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O24">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P24">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q24">
-        <v>170379.0868800618</v>
+        <v>12503.72291815454</v>
       </c>
       <c r="R24">
-        <v>170379.0868800618</v>
+        <v>112533.5062633908</v>
       </c>
       <c r="S24">
-        <v>0.432381048007916</v>
+        <v>0.02912756080831524</v>
       </c>
       <c r="T24">
-        <v>0.432381048007916</v>
+        <v>0.02912756080831524</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>63.66430533333334</v>
+      </c>
+      <c r="H25">
+        <v>190.992916</v>
+      </c>
+      <c r="I25">
+        <v>0.06064614616454483</v>
+      </c>
+      <c r="J25">
+        <v>0.06064614616454483</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.456405</v>
+      </c>
+      <c r="N25">
+        <v>4.369215</v>
+      </c>
+      <c r="O25">
+        <v>0.003561555644896288</v>
+      </c>
+      <c r="P25">
+        <v>0.003561555644896289</v>
+      </c>
+      <c r="Q25">
+        <v>92.72101260899333</v>
+      </c>
+      <c r="R25">
+        <v>834.48911348094</v>
+      </c>
+      <c r="S25">
+        <v>0.00021599462421354</v>
+      </c>
+      <c r="T25">
+        <v>0.00021599462421354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H26">
+        <v>2742.785462</v>
+      </c>
+      <c r="I26">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J26">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.795396333333334</v>
+      </c>
+      <c r="N26">
+        <v>26.386189</v>
+      </c>
+      <c r="O26">
+        <v>0.02150864179955676</v>
+      </c>
+      <c r="P26">
+        <v>0.02150864179955676</v>
+      </c>
+      <c r="Q26">
+        <v>8041.295065198258</v>
+      </c>
+      <c r="R26">
+        <v>72371.65558678431</v>
+      </c>
+      <c r="S26">
+        <v>0.01873228577778955</v>
+      </c>
+      <c r="T26">
+        <v>0.01873228577778956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H27">
+        <v>2742.785462</v>
+      </c>
+      <c r="I27">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J27">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>9.663658666666668</v>
+      </c>
+      <c r="N27">
+        <v>28.990976</v>
+      </c>
+      <c r="O27">
+        <v>0.02363192798336837</v>
+      </c>
+      <c r="P27">
+        <v>0.02363192798336838</v>
+      </c>
+      <c r="Q27">
+        <v>8835.114166887881</v>
+      </c>
+      <c r="R27">
+        <v>79516.02750199092</v>
+      </c>
+      <c r="S27">
+        <v>0.02058149615350054</v>
+      </c>
+      <c r="T27">
+        <v>0.02058149615350054</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H28">
+        <v>2742.785462</v>
+      </c>
+      <c r="I28">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J28">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>94.03635166666668</v>
+      </c>
+      <c r="N28">
+        <v>282.109055</v>
+      </c>
+      <c r="O28">
+        <v>0.2299605529395115</v>
+      </c>
+      <c r="P28">
+        <v>0.2299605529395115</v>
+      </c>
+      <c r="Q28">
+        <v>85973.84608361761</v>
+      </c>
+      <c r="R28">
+        <v>773764.6147525584</v>
+      </c>
+      <c r="S28">
+        <v>0.2002770251801861</v>
+      </c>
+      <c r="T28">
+        <v>0.2002770251801862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H29">
+        <v>2742.785462</v>
+      </c>
+      <c r="I29">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J29">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>98.57118733333334</v>
+      </c>
+      <c r="N29">
+        <v>295.713562</v>
+      </c>
+      <c r="O29">
+        <v>0.2410502358005932</v>
+      </c>
+      <c r="P29">
+        <v>0.2410502358005932</v>
+      </c>
+      <c r="Q29">
+        <v>90119.8731966484</v>
+      </c>
+      <c r="R29">
+        <v>811078.8587698357</v>
+      </c>
+      <c r="S29">
+        <v>0.2099352411881871</v>
+      </c>
+      <c r="T29">
+        <v>0.2099352411881871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H30">
+        <v>2742.785462</v>
+      </c>
+      <c r="I30">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J30">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>196.400838</v>
+      </c>
+      <c r="N30">
+        <v>589.202514</v>
+      </c>
+      <c r="O30">
+        <v>0.4802870858320739</v>
+      </c>
+      <c r="P30">
+        <v>0.4802870858320739</v>
+      </c>
+      <c r="Q30">
+        <v>179561.787730339</v>
+      </c>
+      <c r="R30">
+        <v>1616056.089573051</v>
+      </c>
+      <c r="S30">
+        <v>0.4182911701739137</v>
+      </c>
+      <c r="T30">
+        <v>0.4182911701739137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>881.6598427613239</v>
-      </c>
-      <c r="H25">
-        <v>881.6598427613239</v>
-      </c>
-      <c r="I25">
-        <v>0.878259579190655</v>
-      </c>
-      <c r="J25">
-        <v>0.878259579190655</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.27658331958073</v>
-      </c>
-      <c r="N25">
-        <v>1.27658331958073</v>
-      </c>
-      <c r="O25">
-        <v>0.003252203357585582</v>
-      </c>
-      <c r="P25">
-        <v>0.003252203357585582</v>
-      </c>
-      <c r="Q25">
-        <v>1125.512248813275</v>
-      </c>
-      <c r="R25">
-        <v>1125.512248813275</v>
-      </c>
-      <c r="S25">
-        <v>0.002856278752275549</v>
-      </c>
-      <c r="T25">
-        <v>0.002856278752275549</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H31">
+        <v>2742.785462</v>
+      </c>
+      <c r="I31">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J31">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.456405</v>
+      </c>
+      <c r="N31">
+        <v>4.369215</v>
+      </c>
+      <c r="O31">
+        <v>0.003561555644896288</v>
+      </c>
+      <c r="P31">
+        <v>0.003561555644896289</v>
+      </c>
+      <c r="Q31">
+        <v>1331.535486928037</v>
+      </c>
+      <c r="R31">
+        <v>11983.81938235233</v>
+      </c>
+      <c r="S31">
+        <v>0.003101826641376849</v>
+      </c>
+      <c r="T31">
+        <v>0.003101826641376849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.190028</v>
+      </c>
+      <c r="I32">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J32">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>8.795396333333334</v>
+      </c>
+      <c r="N32">
+        <v>26.386189</v>
+      </c>
+      <c r="O32">
+        <v>0.02150864179955676</v>
+      </c>
+      <c r="P32">
+        <v>0.02150864179955676</v>
+      </c>
+      <c r="Q32">
+        <v>0.5571238581435557</v>
+      </c>
+      <c r="R32">
+        <v>5.014114723292001</v>
+      </c>
+      <c r="S32">
+        <v>1.297826188412907E-06</v>
+      </c>
+      <c r="T32">
+        <v>1.297826188412907E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.190028</v>
+      </c>
+      <c r="I33">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J33">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>9.663658666666668</v>
+      </c>
+      <c r="N33">
+        <v>28.990976</v>
+      </c>
+      <c r="O33">
+        <v>0.02363192798336837</v>
+      </c>
+      <c r="P33">
+        <v>0.02363192798336838</v>
+      </c>
+      <c r="Q33">
+        <v>0.6121219097031113</v>
+      </c>
+      <c r="R33">
+        <v>5.509097187328001</v>
+      </c>
+      <c r="S33">
+        <v>1.425944757708287E-06</v>
+      </c>
+      <c r="T33">
+        <v>1.425944757708287E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.190028</v>
+      </c>
+      <c r="I34">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J34">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>94.03635166666668</v>
+      </c>
+      <c r="N34">
+        <v>282.109055</v>
+      </c>
+      <c r="O34">
+        <v>0.2299605529395115</v>
+      </c>
+      <c r="P34">
+        <v>0.2299605529395115</v>
+      </c>
+      <c r="Q34">
+        <v>5.956513278171112</v>
+      </c>
+      <c r="R34">
+        <v>53.60861950354001</v>
+      </c>
+      <c r="S34">
+        <v>1.387576355067483E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.387576355067483E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.190028</v>
+      </c>
+      <c r="I35">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J35">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>98.57118733333334</v>
+      </c>
+      <c r="N35">
+        <v>295.713562</v>
+      </c>
+      <c r="O35">
+        <v>0.2410502358005932</v>
+      </c>
+      <c r="P35">
+        <v>0.2410502358005932</v>
+      </c>
+      <c r="Q35">
+        <v>6.24376186219289</v>
+      </c>
+      <c r="R35">
+        <v>56.19385675973601</v>
+      </c>
+      <c r="S35">
+        <v>1.454491230364733E-05</v>
+      </c>
+      <c r="T35">
+        <v>1.454491230364733E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.190028</v>
+      </c>
+      <c r="I36">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J36">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>196.400838</v>
+      </c>
+      <c r="N36">
+        <v>589.202514</v>
+      </c>
+      <c r="O36">
+        <v>0.4802870858320739</v>
+      </c>
+      <c r="P36">
+        <v>0.4802870858320739</v>
+      </c>
+      <c r="Q36">
+        <v>12.440552814488</v>
+      </c>
+      <c r="R36">
+        <v>111.964975330392</v>
+      </c>
+      <c r="S36">
+        <v>2.898040535326728E-05</v>
+      </c>
+      <c r="T36">
+        <v>2.898040535326728E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.190028</v>
+      </c>
+      <c r="I37">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J37">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.456405</v>
+      </c>
+      <c r="N37">
+        <v>4.369215</v>
+      </c>
+      <c r="O37">
+        <v>0.003561555644896288</v>
+      </c>
+      <c r="P37">
+        <v>0.003561555644896289</v>
+      </c>
+      <c r="Q37">
+        <v>0.09225257644666666</v>
+      </c>
+      <c r="R37">
+        <v>0.8302731880199999</v>
+      </c>
+      <c r="S37">
+        <v>2.149033969932717E-07</v>
+      </c>
+      <c r="T37">
+        <v>2.149033969932717E-07</v>
       </c>
     </row>
   </sheetData>
